--- a/januari.xlsx
+++ b/januari.xlsx
@@ -391,21 +391,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -414,39 +447,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,7 +717,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -728,7 +728,7 @@
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -749,14 +749,14 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="32"/>
+      <c r="G1" s="35"/>
       <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
@@ -771,22 +771,22 @@
       <c r="C2" s="19">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="30">
         <f>C2-B2</f>
         <v>0.1875</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="23">
+      <c r="E2" s="31"/>
+      <c r="F2" s="24">
         <v>43109</v>
       </c>
-      <c r="G2" s="23"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="7"/>
       <c r="J2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="14">
         <f>D59</f>
-        <v>0.62361111111111134</v>
+        <v>0.63055555555555576</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -799,15 +799,15 @@
       <c r="C3" s="19">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="30">
         <f t="shared" ref="D3:D58" si="0">C3-B3</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="23">
+      <c r="E3" s="31"/>
+      <c r="F3" s="24">
         <v>43112</v>
       </c>
-      <c r="G3" s="23"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="7"/>
       <c r="K3" s="1"/>
     </row>
@@ -821,15 +821,15 @@
       <c r="C4" s="19">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="30">
         <f t="shared" si="0"/>
         <v>8.680555555555558E-2</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="23">
+      <c r="E4" s="31"/>
+      <c r="F4" s="24">
         <v>43117</v>
       </c>
-      <c r="G4" s="23"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -842,15 +842,15 @@
       <c r="C5" s="19">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="30">
         <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="23">
+      <c r="E5" s="31"/>
+      <c r="F5" s="24">
         <v>43117</v>
       </c>
-      <c r="G5" s="23"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -863,34 +863,34 @@
       <c r="C6" s="19">
         <v>0.6479166666666667</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="39">
         <f t="shared" si="0"/>
         <v>0.1479166666666667</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="33">
+      <c r="E6" s="40"/>
+      <c r="F6" s="36">
         <v>43119</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="19">
         <v>0.54166666666666663</v>
       </c>
       <c r="C7" s="18">
-        <v>0.61805555555555558</v>
-      </c>
-      <c r="D7" s="30">
-        <f t="shared" si="0"/>
-        <v>7.6388888888888951E-2</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
+        <v>0.625</v>
+      </c>
+      <c r="D7" s="41">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -899,13 +899,13 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
+      <c r="D8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -914,13 +914,13 @@
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
-      <c r="D9" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+      <c r="D9" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -929,13 +929,13 @@
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
-      <c r="D10" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+      <c r="D10" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -944,13 +944,13 @@
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+      <c r="D11" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -959,13 +959,13 @@
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="D12" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -974,13 +974,13 @@
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
-      <c r="D13" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+      <c r="D13" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -989,13 +989,13 @@
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+      <c r="D14" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1004,13 +1004,13 @@
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
-      <c r="D15" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
+      <c r="D15" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1019,13 +1019,13 @@
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
+      <c r="D16" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1034,13 +1034,13 @@
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
-      <c r="D17" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
+      <c r="D17" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1049,13 +1049,13 @@
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
-      <c r="D18" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="D18" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1064,13 +1064,13 @@
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
+      <c r="D19" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1079,13 +1079,13 @@
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
+      <c r="D20" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1094,13 +1094,13 @@
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
+      <c r="D21" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1109,13 +1109,13 @@
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
+      <c r="D22" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1124,13 +1124,13 @@
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
+      <c r="D23" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1139,13 +1139,13 @@
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
+      <c r="D24" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1154,13 +1154,13 @@
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
+      <c r="D25" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="31"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1169,13 +1169,13 @@
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
-      <c r="D26" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
+      <c r="D26" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="31"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1184,13 +1184,13 @@
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
-      <c r="D27" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
+      <c r="D27" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1199,13 +1199,13 @@
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
-      <c r="D28" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
+      <c r="D28" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1214,13 +1214,13 @@
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
-      <c r="D29" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
+      <c r="D29" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1229,13 +1229,13 @@
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
-      <c r="D30" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
+      <c r="D30" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="31"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1244,13 +1244,13 @@
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
-      <c r="D31" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
+      <c r="D31" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="31"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1259,13 +1259,13 @@
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
-      <c r="D32" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
+      <c r="D32" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="31"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1274,13 +1274,13 @@
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
-      <c r="D33" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
+      <c r="D33" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="31"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1289,13 +1289,13 @@
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
-      <c r="D34" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
+      <c r="D34" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="31"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1304,13 +1304,13 @@
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
-      <c r="D35" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
+      <c r="D35" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="31"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1319,13 +1319,13 @@
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
-      <c r="D36" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
+      <c r="D36" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="31"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1334,13 +1334,13 @@
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
-      <c r="D37" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
+      <c r="D37" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="31"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1349,13 +1349,13 @@
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
-      <c r="D38" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
+      <c r="D38" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="31"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1364,13 +1364,13 @@
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
-      <c r="D39" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="27"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
+      <c r="D39" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="31"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
       <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1379,13 +1379,13 @@
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
-      <c r="D40" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
+      <c r="D40" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="31"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1394,13 +1394,13 @@
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
-      <c r="D41" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
+      <c r="D41" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="31"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1409,13 +1409,13 @@
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
-      <c r="D42" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="27"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
+      <c r="D42" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="31"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1424,13 +1424,13 @@
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
-      <c r="D43" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
+      <c r="D43" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="31"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1439,13 +1439,13 @@
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
-      <c r="D44" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
+      <c r="D44" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1454,13 +1454,13 @@
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
-      <c r="D45" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
+      <c r="D45" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1469,13 +1469,13 @@
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
-      <c r="D46" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
+      <c r="D46" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
       <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1484,13 +1484,13 @@
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
-      <c r="D47" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E47" s="27"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
+      <c r="D47" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="31"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
       <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1499,13 +1499,13 @@
       </c>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
-      <c r="D48" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E48" s="27"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
+      <c r="D48" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="31"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
       <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1514,13 +1514,13 @@
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
-      <c r="D49" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E49" s="27"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
+      <c r="D49" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
       <c r="H49" s="7"/>
     </row>
     <row r="50" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1529,13 +1529,13 @@
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
-      <c r="D50" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E50" s="27"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
+      <c r="D50" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="31"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1544,13 +1544,13 @@
       </c>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
-      <c r="D51" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E51" s="27"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
+      <c r="D51" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="31"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1559,13 +1559,13 @@
       </c>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
-      <c r="D52" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
+      <c r="D52" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="31"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
       <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1574,13 +1574,13 @@
       </c>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
-      <c r="D53" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E53" s="27"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
+      <c r="D53" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="31"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
       <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1589,13 +1589,13 @@
       </c>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
-      <c r="D54" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E54" s="27"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
+      <c r="D54" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="31"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1604,13 +1604,13 @@
       </c>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
-      <c r="D55" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E55" s="27"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
+      <c r="D55" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="31"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
       <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1619,13 +1619,13 @@
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E56" s="27"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
+      <c r="D56" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="31"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1634,13 +1634,13 @@
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E57" s="27"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
+      <c r="D57" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="31"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:8" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1649,13 +1649,13 @@
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E58" s="36"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
+      <c r="D58" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="33"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
       <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1664,13 +1664,13 @@
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
-      <c r="D59" s="38">
+      <c r="D59" s="26">
         <f>SUM(D2:E58)</f>
-        <v>0.62361111111111134</v>
-      </c>
-      <c r="E59" s="39"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
+        <v>0.63055555555555576</v>
+      </c>
+      <c r="E59" s="27"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
       <c r="H59" s="12"/>
     </row>
     <row r="60" spans="1:8" ht="57" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -1699,22 +1699,84 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F9:G9"/>
@@ -1739,84 +1801,22 @@
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
